--- a/随意/账户.xlsx
+++ b/随意/账户.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECA592-4D61-48B8-A81E-A45927AB3C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0650CF5-2013-41C7-83CD-C1B8AF36A02D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>帮卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,22 +412,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +443,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43358</v>
       </c>
@@ -451,7 +458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -460,7 +467,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -468,7 +475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43360</v>
       </c>
@@ -479,7 +486,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>43367</v>
       </c>
@@ -490,7 +497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>43367</v>
       </c>
@@ -501,12 +508,18 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43383</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
